--- a/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>WeponId</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Durabiluty</t>
   </si>
   <si>
+    <t>Critical</t>
+  </si>
+  <si>
     <t>EffectType</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>Striking</t>
+  </si>
+  <si>
+    <t>レイピア</t>
   </si>
 </sst>
 </file>
@@ -135,30 +141,36 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>5.0</v>
       </c>
       <c r="D2" s="1">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" s="1">
         <v>5.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="F2" s="1">
+        <v>10.0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -167,24 +179,27 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
         <v>8.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>10.0</v>
-      </c>
       <c r="E3" s="1">
         <v>10.0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+      <c r="F3" s="1">
+        <v>30.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -193,7 +208,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>10.0</v>
@@ -202,24 +217,56 @@
         <v>15.0</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>8.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15.0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
-        <v>3.0</v>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1000">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G1000">
       <formula1>"Slashing,Striking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G1000">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H1000">
       <formula1>"Main,Sub"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>WeponId</t>
   </si>
@@ -62,6 +62,69 @@
   </si>
   <si>
     <t>レイピア</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>ふしぎなステッキ</t>
+  </si>
+  <si>
+    <t>ふしぎなカッター</t>
   </si>
 </sst>
 </file>
@@ -76,12 +139,24 @@
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,13 +165,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -118,6 +201,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -156,13 +242,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E2" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F2" s="1">
         <v>10.0</v>
@@ -207,61 +293,1384 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="E7" s="2">
         <v>10.0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F7" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
         <v>15.0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D9" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
         <v>15.0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="D12" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I12" s="2">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="F17" s="2">
         <v>10.0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
         <v>20.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2">
         <v>10.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="D22" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
         <v>35.0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4.0</v>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>85.0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
@@ -64,61 +64,61 @@
     <t>レイピア</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
+    <t>ハンマー</t>
+  </si>
+  <si>
+    <t>グラディウス</t>
+  </si>
+  <si>
+    <t>モーニングスター</t>
+  </si>
+  <si>
+    <t>エストック</t>
+  </si>
+  <si>
+    <t>ファルシオン</t>
+  </si>
+  <si>
+    <t>メイス</t>
+  </si>
+  <si>
+    <t>フレイル</t>
+  </si>
+  <si>
+    <t>フランベルジェ</t>
+  </si>
+  <si>
+    <t>パタ</t>
+  </si>
+  <si>
+    <t>カリンガ</t>
+  </si>
+  <si>
+    <t>バスタードソード</t>
+  </si>
+  <si>
+    <t>セイクリッドソード</t>
+  </si>
+  <si>
+    <t>きのぼう</t>
+  </si>
+  <si>
+    <t>スティレット</t>
+  </si>
+  <si>
+    <t>ククリ</t>
+  </si>
+  <si>
+    <t>ケイボウ</t>
+  </si>
+  <si>
+    <t>クリス</t>
+  </si>
+  <si>
+    <t>ジャンビーヤ</t>
+  </si>
+  <si>
+    <t>ソードブレイカー</t>
   </si>
   <si>
     <t>ふしぎなステッキ</t>
@@ -260,7 +260,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -289,7 +289,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -318,7 +318,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -365,7 +365,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -406,7 +406,7 @@
         <v>20.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -500,7 +500,7 @@
         <v>17.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -600,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -641,13 +641,13 @@
         <v>23.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -688,13 +688,13 @@
         <v>19.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -741,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -829,7 +829,7 @@
         <v>34.0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -929,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -970,13 +970,13 @@
         <v>45.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1111,13 +1111,13 @@
         <v>39.0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1164,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1211,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1258,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1352,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="I26" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>

--- a/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
@@ -121,10 +121,10 @@
     <t>ソードブレイカー</t>
   </si>
   <si>
-    <t>ふしぎなステッキ</t>
-  </si>
-  <si>
-    <t>ふしぎなカッター</t>
+    <t>ふるびたステッキ</t>
+  </si>
+  <si>
+    <t>デッドリーシックル</t>
   </si>
 </sst>
 </file>
@@ -202,7 +202,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
+    <col customWidth="1" min="2" max="2" width="17.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1287,13 +1287,13 @@
         <v>36</v>
       </c>
       <c r="C25" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D25" s="4">
-        <v>100.0</v>
+        <v>20.0</v>
       </c>
       <c r="E25" s="4">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="F25" s="4">
         <v>70.0</v>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I25" s="4">
         <v>1.0</v>
@@ -1334,13 +1334,13 @@
         <v>37</v>
       </c>
       <c r="C26" s="4">
+        <v>998.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>999.0</v>
+      </c>
+      <c r="E26" s="4">
         <v>1.0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>15.0</v>
       </c>
       <c r="F26" s="4">
         <v>100.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/WeponData.xlsx
@@ -1005,13 +1005,13 @@
         <v>30</v>
       </c>
       <c r="C19" s="2">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="D19" s="2">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="E19" s="2">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="F19" s="2">
         <v>39.0</v>
@@ -1052,16 +1052,16 @@
         <v>31</v>
       </c>
       <c r="C20" s="2">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="D20" s="2">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="E20" s="2">
         <v>12.0</v>
       </c>
       <c r="F20" s="2">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
